--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -34,7 +34,38 @@
     <t xml:space="preserve">Idler / Tensioner BOM</t>
   </si>
   <si>
-    <t xml:space="preserve">Idler Pin M3x18mm</t>
+    <t xml:space="preserve">Pin M3x18mm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">KB-3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ali-Express</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">M2x10 Self Tapper</t>
@@ -76,7 +107,7 @@
     <t xml:space="preserve">M3x30 BHCS</t>
   </si>
   <si>
-    <t xml:space="preserve">Motor Pins M3x30mm</t>
+    <t xml:space="preserve">Pins M3x30mm</t>
   </si>
   <si>
     <t xml:space="preserve">XY Joint BOM</t>
@@ -88,9 +119,6 @@
     <t xml:space="preserve">M2x6 FHCS</t>
   </si>
   <si>
-    <t xml:space="preserve">XY Pins M3x30mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Live Idler XY Joint BOM</t>
   </si>
   <si>
@@ -103,13 +131,54 @@
     <t xml:space="preserve">16 tooth solid idler</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.filastruder.com/collections/gates/products/gates-2gt-pulley-custom-no-grub-set-screw?variant=41243545174087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://alchemy3d.de/products/active-idlers-5mm-id-16t-for-6mm-belt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3dkatten.eu/products/custom-16t-2gt-3mm-id-live-shaft-idler</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">filastruder.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Alchemy3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3dkatten</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -119,11 +188,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,6 +209,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,13 +260,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -318,345 +403,351 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B35" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="n">
+      <c r="B41" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1" t="n">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="B45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1"/>
-      <c r="C46" s="0" t="s">
-        <v>28</v>
-      </c>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1"/>
-      <c r="C47" s="0" t="s">
-        <v>29</v>
-      </c>
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
